--- a/biology/Zoologie/Euphydryas_anicia/Euphydryas_anicia.xlsx
+++ b/biology/Zoologie/Euphydryas_anicia/Euphydryas_anicia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphydryas anicia est un lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Nymphalinae et au genre Euphydryas.
 </t>
@@ -511,15 +523,87 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Euphydryas anicia a été nommé par Henry Doubleday en 1847.
-Synonymes :Melitaea anicia (Doubleday,1847); Lemonias anicia ; Dyar, 1903; Occidryas anicia ; Higgins, 1981[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euphydryas anicia a été nommé par Henry Doubleday en 1847.
+Synonymes :Melitaea anicia (Doubleday,1847); Lemonias anicia ; Dyar, 1903; Occidryas anicia ; Higgins, 1981.
 Euphydryas anicia est considéré par certains comme une sous-espèce d' Euphydryas chalcedona, Euphydryas chalcedona anicia
-Noms vernaculaires
-Euphydryas anicia se nomme en anglais Anicia Checkerspot[1].
-Sous-espèces
-Euphydryas anicia alena (Barnes et Benjamin, 1926)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Euphydryas_anicia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphydryas_anicia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euphydryas anicia se nomme en anglais Anicia Checkerspot.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Euphydryas_anicia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphydryas_anicia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Euphydryas anicia alena (Barnes et Benjamin, 1926)
 Euphydryas anicia bakeri (Stallings et Turner, 1945)
 Euphydryas anicia bernadetta (Leussler, 1920)
 Euphydryas anicia capella (Barnes, 1897)
@@ -539,74 +623,7 @@
 Euphydryas anicia morandi (Gunder, 1928)
 Euphydryas anicia veazieae (Fender et Jewett, 1953)
 Euphydryas anicia wheeleri (H. Edwards, 1881)
-Euphydryas anicia windi (Gunder, 1932)[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Euphydryas_anicia</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Euphydryas_anicia</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euphydryas anicia présente un aspect très variable, ce qui explique le très grand nombre de sous-espèces décrites. La face supérieure des ailes est noire avec des lignes de taches blanches et orange en forme de damier, avec une bordure orange et une frange blanche entrecoupée. Les variations portent sur la couleur jaune, orange ou rouge orangé suivant les sous-espèces.
-Le revers est plus clair avec la même ornementation. Les antennes sont en massue[2],[3].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Euphydryas_anicia</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Euphydryas_anicia</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-L'imago vole en une génération[3].
-la chenille hiberne au troisième ou au quatrième stade[4]
-Plantes hôtes
-Les plantes hôtes de la chenille sont des Plantaginaceae, Scrophulariaceae et Boraginaceae, Penstemon, Castilleja[1].
-</t>
+Euphydryas anicia windi (Gunder, 1932).</t>
         </is>
       </c>
     </row>
@@ -631,16 +648,197 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euphydryas anicia présente un aspect très variable, ce qui explique le très grand nombre de sous-espèces décrites. La face supérieure des ailes est noire avec des lignes de taches blanches et orange en forme de damier, avec une bordure orange et une frange blanche entrecoupée. Les variations portent sur la couleur jaune, orange ou rouge orangé suivant les sous-espèces.
+Le revers est plus clair avec la même ornementation. Les antennes sont en massue,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euphydryas_anicia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphydryas_anicia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago vole en une génération.
+la chenille hiberne au troisième ou au quatrième stade
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Euphydryas_anicia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphydryas_anicia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de la chenille sont des Plantaginaceae, Scrophulariaceae et Boraginaceae, Penstemon, Castilleja.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Euphydryas_anicia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphydryas_anicia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans l'ouest de l'Amérique du Nord, au canada en Alberta, dans l'État de Washington,le Montana et le nord du Wyoming, l'Oregon, la Californie, le Nevada, le Colorado et dans l'Arizona[1],[5].
-Biotope
-Il réside dans les prairies et les clairières, près des cours d'eau.
-Protection
-Pas de statut de protection particulier.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans l'ouest de l'Amérique du Nord, au canada en Alberta, dans l'État de Washington,le Montana et le nord du Wyoming, l'Oregon, la Californie, le Nevada, le Colorado et dans l'Arizona,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Euphydryas_anicia</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphydryas_anicia</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les prairies et les clairières, près des cours d'eau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Euphydryas_anicia</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphydryas_anicia</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
